--- a/python/xlsx/workseets/workseet-tester.xlsx
+++ b/python/xlsx/workseets/workseet-tester.xlsx
@@ -348,8 +348,10 @@
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
-    <oddHeader>&amp;LPage &amp;P of &amp;N&amp;CFilename: &amp;F&amp;RSheetname: &amp;A</oddHeader>
-    <oddFooter>&amp;LCurrent date: &amp;D&amp;RCurrent time: &amp;T</oddFooter>
+    <oddHeader>&amp;C&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;L&amp;T
+&amp;D&amp;C &amp;P / &amp;N&amp;R&amp;8&amp;Z
+&amp;8&amp;F</oddFooter>
   </headerFooter>
 </worksheet>
 </file>